--- a/biology/Botanique/Cottage_d'Anne_Hathaway/Cottage_d'Anne_Hathaway.xlsx
+++ b/biology/Botanique/Cottage_d'Anne_Hathaway/Cottage_d'Anne_Hathaway.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cottage_d%27Anne_Hathaway</t>
+          <t>Cottage_d'Anne_Hathaway</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cottage d'Anne Hathaway est un cottage du XVe siècle de style Tudor, un jardin à l'anglaise et un musée de Shottery (hameau de Stratford-upon-Avon) dans le Warwickshire en Angleterre où Anne Hathaway (1555-1623) (épouse du poète, dramaturge et écrivain William Shakespeare) est née et a vécu jusqu’à son mariage en 1582.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cottage_d%27Anne_Hathaway</t>
+          <t>Cottage_d'Anne_Hathaway</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1555 Anne Hathaway nait dans ce cottage / chaumière / maison à colombages / ferme avec un domaine de 36 hectares de terres à environ 1 mile (1,6 km) à l'ouest de la maison natale de Shakespeare de Stratford-upon-Avon.
 Elle y vit jusqu’à son mariage avec William Shakespeare le 28 novembre 1582 avec qui elle aura trois enfants Susanna et deux jumeaux, Hamnet et Judith.
